--- a/budgets/data/supplies/ConstructionMaterials/data/ConstructionMaterials.xlsx
+++ b/budgets/data/supplies/ConstructionMaterials/data/ConstructionMaterials.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\njava\simasoft\budgets\data\supplies\ConstructionMaterials\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13650" windowHeight="5565"/>
   </bookViews>
   <sheets>
     <sheet name="ConstructionMaterials" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="133">
   <si>
     <t>;</t>
   </si>
@@ -81,7 +81,7 @@
     <t>Lija de agua No. 100</t>
   </si>
   <si>
-    <t>Acido Oxálico</t>
+    <t>Acido Ox lico</t>
   </si>
   <si>
     <t>Cera</t>
@@ -117,25 +117,25 @@
     <t>Concreto 3000 Psi trit 3/8 "</t>
   </si>
   <si>
-    <t>Concreto Simple  f'c = 210 Kg/cm²</t>
-  </si>
-  <si>
-    <t>Concreto Simple  f'c = 105 Kg/cm²</t>
-  </si>
-  <si>
-    <t>Concreto Simple  f'c = 175 Kg/cm²</t>
+    <t>Concreto Simple  f'c = 210 Kg/cmý</t>
+  </si>
+  <si>
+    <t>Concreto Simple  f'c = 105 Kg/cmý</t>
+  </si>
+  <si>
+    <t>Concreto Simple  f'c = 175 Kg/cmý</t>
   </si>
   <si>
     <t>Puntilla</t>
   </si>
   <si>
-    <t>Piedra rajón</t>
+    <t>Piedra raj¢n</t>
   </si>
   <si>
     <t>Piedra Bolo</t>
   </si>
   <si>
-    <t>Casetón Ecológico</t>
+    <t>Caset¢n Ecol¢gico</t>
   </si>
   <si>
     <t>Malla Electrosoldada M - 024</t>
@@ -147,7 +147,7 @@
     <t>Formaleta Columnas</t>
   </si>
   <si>
-    <t>Formaleta Mesón en Concreto Lavamanos Corrido</t>
+    <t>Formaleta Mes¢n en Concreto Lavamanos Corrido</t>
   </si>
   <si>
     <t>Formaleta Losa E = 40 cm.</t>
@@ -159,26 +159,13 @@
     <t>Formaleta Placa Maciza</t>
   </si>
   <si>
-    <t xml:space="preserve">Formaleta </t>
-  </si>
-  <si>
     <t>Servicio de Bombeo de concreto</t>
   </si>
   <si>
     <t>A.C.P.M</t>
   </si>
   <si>
-    <r>
-      <t>Tela asfaltica TELAFLEX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  (del rollo)</t>
-    </r>
+    <t>Tela asfaltica TELAFLEX  (del rollo)</t>
   </si>
   <si>
     <t>Manto Impermeable</t>
@@ -187,337 +174,67 @@
     <t>1/4 imprimante</t>
   </si>
   <si>
-    <t xml:space="preserve">Formaleta  </t>
-  </si>
-  <si>
     <t>Formaleta Dintel</t>
   </si>
   <si>
-    <t>Formaletas Caja de Inspección 50 - 60</t>
-  </si>
-  <si>
-    <t>Formaletas Caja de Inspección 80 - 90</t>
-  </si>
-  <si>
-    <r>
-      <t>Accesorios, Limpiador y soldadura</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 2''</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Accesorios, Limpiador y soldadura </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 3''</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Accesorios, Limpiador y soldadura </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 4''</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Accesorios, Limpiador y soldadura Punto Sanitario </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> f </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>= 3''</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Accesorios, Limpiador y soldadura Punto Sanitario </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> f </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>= 4''</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Accesorios, Limpiador y soldadura  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">f </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>= 1/2'' RDE 9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Accesorios, Limpiador y soldadura  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">f </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>= 3/4'' RDE 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Accesorios, Limpiador y soldadura Punto Hidráulico PVC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 1/2''</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tubería PVC Sanitaria </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">f </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>= 2''</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tubería PVC Sanitaria </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">f </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>= 3''</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tubería PVC Sanitaria </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">f </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>= 4''</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tubería PVC 2'' Agua Lluvia </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(ventilación)</t>
-    </r>
-  </si>
-  <si>
-    <t>Tubería PVC 3'' Agua Lluvia</t>
-  </si>
-  <si>
-    <t>Tubería PVC 4'' Agua Lluvia</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tubería PVC 1/2'' RDE 9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(presión)</t>
-    </r>
-  </si>
-  <si>
-    <t>Tubería PVC 3/4'' RDE 11</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tragante con sosco </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 4''</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tragante con sosco </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 3''</t>
-    </r>
+    <t>Formaletas Caja de Inspecci¢n 50 - 60</t>
+  </si>
+  <si>
+    <t>Formaletas Caja de Inspecci¢n 80 - 90</t>
+  </si>
+  <si>
+    <t>Accesorios, Limpiador y soldadura f = 2''</t>
+  </si>
+  <si>
+    <t>Accesorios, Limpiador y soldadura  f = 3''</t>
+  </si>
+  <si>
+    <t>Accesorios, Limpiador y soldadura  f = 4''</t>
+  </si>
+  <si>
+    <t>Accesorios, Limpiador y soldadura Punto Sanitario  f = 3''</t>
+  </si>
+  <si>
+    <t>Accesorios, Limpiador y soldadura Punto Sanitario  f = 4''</t>
+  </si>
+  <si>
+    <t>Accesorios, Limpiador y soldadura  f = 1/2'' RDE 9</t>
+  </si>
+  <si>
+    <t>Accesorios, Limpiador y soldadura  f = 3/4'' RDE 11</t>
+  </si>
+  <si>
+    <t>Accesorios, Limpiador y soldadura Punto Hidr ulico PVC f = 1/2''</t>
+  </si>
+  <si>
+    <t>Tuber¡a PVC Sanitaria f = 2''</t>
+  </si>
+  <si>
+    <t>Tuber¡a PVC Sanitaria f = 3''</t>
+  </si>
+  <si>
+    <t>Tuber¡a PVC Sanitaria f = 4''</t>
+  </si>
+  <si>
+    <t>Tuber¡a PVC 2'' Agua Lluvia (ventilaci¢n)</t>
+  </si>
+  <si>
+    <t>Tuber¡a PVC 3'' Agua Lluvia</t>
+  </si>
+  <si>
+    <t>Tuber¡a PVC 4'' Agua Lluvia</t>
+  </si>
+  <si>
+    <t>Tuber¡a PVC 1/2'' RDE 9 (presi¢n)</t>
+  </si>
+  <si>
+    <t>Tuber¡a PVC 3/4'' RDE 11</t>
+  </si>
+  <si>
+    <t>Tragante con sosco f = 4''</t>
+  </si>
+  <si>
+    <t>Tragante con sosco f = 3''</t>
   </si>
   <si>
     <t>Rejilla con sosco de aluminio 3 x 2''</t>
@@ -526,57 +243,19 @@
     <t>Rejilla con sosco de aluminio4 x 3''</t>
   </si>
   <si>
-    <t>Materiales Conexión Domiciliario</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Accesorios, Limpiador y soldadura Punto Sanitario </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> f </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>= 2''</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Accesorios, Limpiador y soldadura Punto Sanitario </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Symbol"/>
-        <family val="1"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve"> f </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>= 3/4''</t>
-    </r>
+    <t>Materiales Conexi¢n Domiciliario</t>
+  </si>
+  <si>
+    <t>Accesorios, Limpiador y soldadura Punto Sanitario  f = 2''</t>
+  </si>
+  <si>
+    <t>Accesorios, Limpiador y soldadura Punto Sanitario  f = 3/4''</t>
   </si>
   <si>
     <t>Tuberia de Gress de 6''</t>
   </si>
   <si>
-    <t>Accesorios varios para instalación de tubería</t>
+    <t>Accesorios varios para instalaci¢n de tuber¡a</t>
   </si>
   <si>
     <t>Rejilla con sosco de aluminio 6 x 4''</t>
@@ -597,10 +276,10 @@
     <t>Tuberia de Gress de 8''</t>
   </si>
   <si>
-    <t>Materiales Conexión Pozos</t>
-  </si>
-  <si>
-    <t>Tubo en Concreto Reforzado Ø=36"</t>
+    <t>Materiales Conexi¢n Pozos</t>
+  </si>
+  <si>
+    <t>Tubo en Concreto Reforzado =36"</t>
   </si>
   <si>
     <t xml:space="preserve">Ducteria </t>
@@ -609,10 +288,10 @@
     <t>Ducteria Salida T.V</t>
   </si>
   <si>
-    <t>Ducteria Salida Teléfono</t>
-  </si>
-  <si>
-    <t>Ducteria Subacometida Eléctrica</t>
+    <t>Ducteria Salida Tel‚fono</t>
+  </si>
+  <si>
+    <t>Ducteria Subacometida El‚ctrica</t>
   </si>
   <si>
     <t>Cableado</t>
@@ -624,34 +303,34 @@
     <t xml:space="preserve">CableadoSalida para T.V </t>
   </si>
   <si>
-    <t>CableadoSalida para Teléfono</t>
-  </si>
-  <si>
-    <t>Cableado  Subacometida Eléctrica</t>
+    <t>CableadoSalida para Tel‚fono</t>
+  </si>
+  <si>
+    <t>Cableado  Subacometida El‚ctrica</t>
   </si>
   <si>
     <t>Cinta</t>
   </si>
   <si>
-    <t>Cinta Subacometida Eléctrica</t>
+    <t>Cinta Subacometida El‚ctrica</t>
   </si>
   <si>
     <t>Cinta TomaC Especial 110V</t>
   </si>
   <si>
-    <t>Accesorios Eléctricos Salida Normal</t>
-  </si>
-  <si>
-    <t>Accesorios Eléctricos Salida Tomacorriente Doble</t>
-  </si>
-  <si>
-    <t>Accesorios Eléctricos Tomacorriente Especial 110 V</t>
+    <t>Accesorios El‚ctricos Salida Normal</t>
+  </si>
+  <si>
+    <t>Accesorios El‚ctricos Salida Tomacorriente Doble</t>
+  </si>
+  <si>
+    <t>Accesorios El‚ctricos Tomacorriente Especial 110 V</t>
   </si>
   <si>
     <t>Accesorios Salida T.V</t>
   </si>
   <si>
-    <t>Accesorios Salida Teléfono</t>
+    <t>Accesorios Salida Tel‚fono</t>
   </si>
   <si>
     <t>Toma Corriente Polo aTierra</t>
@@ -663,10 +342,10 @@
     <t>Sistema General de polo aTIerra</t>
   </si>
   <si>
-    <t>Tablero Monofásico 8 puestos</t>
-  </si>
-  <si>
-    <t>Protección 1 x 15 A</t>
+    <t>Tablero Monof sico 8 puestos</t>
+  </si>
+  <si>
+    <t>Protecci¢n 1 x 15 A</t>
   </si>
   <si>
     <t>Lampara de 2x 48</t>
@@ -684,10 +363,13 @@
     <t xml:space="preserve">Reflector de mercurio de 400w </t>
   </si>
   <si>
+    <t>Lampara AP de sodio de 150  W en tubo de perforaci•n de 2" X 45 m</t>
+  </si>
+  <si>
     <t>Reflector de sodio de 250 W</t>
   </si>
   <si>
-    <t>Poste metàlico de Perforaciòn de L12m D= 4"</t>
+    <t>Poste met…lico de Perforaci•n de L12m D= 4"</t>
   </si>
   <si>
     <t>Luminaria de sodio de 150 W</t>
@@ -696,16 +378,13 @@
     <t>Caja Subterranea de Paso 30 X 30 cm</t>
   </si>
   <si>
-    <t>Caja de Inspecciòn Fundida 30 X 30</t>
+    <t>Caja de Inspecci•n Fundida 30 X 30</t>
   </si>
   <si>
     <t>Tablero General de 18 circuitos</t>
   </si>
   <si>
-    <t>Lampara Ornamental Tipo Colonial - doble (según diseño)</t>
-  </si>
-  <si>
-    <t>Lampara AP de sodio de 150  W en tubo de perforaciòn de 2" X 45 m</t>
+    <t>Lampara Ornamental Tipo Colonial - doble (seg£n dise¤o)</t>
   </si>
   <si>
     <t>Ladrillo H - 15</t>
@@ -723,14 +402,29 @@
     <t>Ladrillo T-1 o Tolete</t>
   </si>
   <si>
-    <t>Ladrillo Tipo Alfagía ST para bordillos</t>
+    <t>Ladrillo Tipo Alfag¡a ST para bordillos</t>
+  </si>
+  <si>
+    <t>Formaleta1</t>
+  </si>
+  <si>
+    <t>Formaleta2</t>
+  </si>
+  <si>
+    <t>Formaleta3</t>
+  </si>
+  <si>
+    <t>Gravilla No. 22</t>
+  </si>
+  <si>
+    <t>Materiales Varios1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,45 +558,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Symbol"/>
-      <family val="1"/>
-      <charset val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1246,20 +901,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1305,7 +948,18 @@
     <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1583,13 +1237,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1622,1015 +1276,1018 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>201</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>202</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>203</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>204</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>205</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>301</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>302</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>303</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>304</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>305</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>306</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>307</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>308</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>309</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>310</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>311</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>312</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>313</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>319</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>322</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>323</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>324</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>325</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>326</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>327</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>328</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>329</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>330</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>332</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>333</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>334</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>335</v>
+      </c>
+      <c r="B35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>308</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>309</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>310</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>311</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>312</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>313</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>319</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>322</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>323</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>324</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>325</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>326</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>327</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>328</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>329</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>330</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>332</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>333</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>334</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>335</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>402</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>403</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>404</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>405</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>406</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>407</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>408</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>409</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>410</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>413</v>
+      </c>
+      <c r="B45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>413</v>
-      </c>
-      <c r="B45" s="7" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>414</v>
+      </c>
+      <c r="B46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>414</v>
-      </c>
-      <c r="B46" s="7" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>415</v>
+      </c>
+      <c r="B47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>415</v>
-      </c>
-      <c r="B47" s="7" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>419</v>
+      </c>
+      <c r="B48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>419</v>
-      </c>
-      <c r="B48" s="7" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>420</v>
+      </c>
+      <c r="B49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>420</v>
-      </c>
-      <c r="B49" s="7" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>421</v>
+      </c>
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>422</v>
+      </c>
+      <c r="B51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>421</v>
-      </c>
-      <c r="B50" s="1" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>423</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>501</v>
+      </c>
+      <c r="B53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>422</v>
-      </c>
-      <c r="B51" s="1" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>502</v>
+      </c>
+      <c r="B54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>423</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
-        <v>501</v>
-      </c>
-      <c r="B53" s="1" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>503</v>
+      </c>
+      <c r="B55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="6">
-        <v>502</v>
-      </c>
-      <c r="B54" s="1" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>504</v>
+      </c>
+      <c r="B56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>503</v>
-      </c>
-      <c r="B55" s="1" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>505</v>
+      </c>
+      <c r="B57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>504</v>
-      </c>
-      <c r="B56" s="1" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>506</v>
+      </c>
+      <c r="B58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>505</v>
-      </c>
-      <c r="B57" s="1" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>507</v>
+      </c>
+      <c r="B59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>506</v>
-      </c>
-      <c r="B58" s="1" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>508</v>
+      </c>
+      <c r="B60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>507</v>
-      </c>
-      <c r="B59" s="1" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>509</v>
+      </c>
+      <c r="B61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>508</v>
-      </c>
-      <c r="B60" s="1" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>510</v>
+      </c>
+      <c r="B62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>509</v>
-      </c>
-      <c r="B61" s="1" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>511</v>
+      </c>
+      <c r="B63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>510</v>
-      </c>
-      <c r="B62" s="8" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>512</v>
+      </c>
+      <c r="B64" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
-        <v>511</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>513</v>
+      </c>
+      <c r="B65" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
-        <v>512</v>
-      </c>
-      <c r="B64" s="1" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>514</v>
+      </c>
+      <c r="B66" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <v>513</v>
-      </c>
-      <c r="B65" s="1" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>515</v>
+      </c>
+      <c r="B67" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <v>514</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>516</v>
+      </c>
+      <c r="B68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
-        <v>515</v>
-      </c>
-      <c r="B67" s="1" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>517</v>
+      </c>
+      <c r="B69" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
-        <v>516</v>
-      </c>
-      <c r="B68" s="1" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>518</v>
+      </c>
+      <c r="B70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
-        <v>517</v>
-      </c>
-      <c r="B69" s="1" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>519</v>
+      </c>
+      <c r="B71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
-        <v>518</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>520</v>
+      </c>
+      <c r="B72" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>519</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>521</v>
+      </c>
+      <c r="B73" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>520</v>
-      </c>
-      <c r="B72" s="1" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>522</v>
+      </c>
+      <c r="B74" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
-        <v>521</v>
-      </c>
-      <c r="B73" s="1" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>523</v>
+      </c>
+      <c r="B75" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
-        <v>522</v>
-      </c>
-      <c r="B74" s="1" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>524</v>
+      </c>
+      <c r="B76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
-        <v>523</v>
-      </c>
-      <c r="B75" s="1" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>525</v>
+      </c>
+      <c r="B77" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
-        <v>524</v>
-      </c>
-      <c r="B76" s="1" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>526</v>
+      </c>
+      <c r="B78" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
-        <v>525</v>
-      </c>
-      <c r="B77" s="1" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>527</v>
+      </c>
+      <c r="B79" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="6">
-        <v>526</v>
-      </c>
-      <c r="B78" s="1" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>528</v>
+      </c>
+      <c r="B80" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
-        <v>527</v>
-      </c>
-      <c r="B79" s="1" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>529</v>
+      </c>
+      <c r="B81" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
-        <v>528</v>
-      </c>
-      <c r="B80" s="1" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>530</v>
+      </c>
+      <c r="B82" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="6">
-        <v>529</v>
-      </c>
-      <c r="B81" s="1" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>531</v>
+      </c>
+      <c r="B83" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
-        <v>530</v>
-      </c>
-      <c r="B82" s="1" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>532</v>
+      </c>
+      <c r="B84" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
-        <v>531</v>
-      </c>
-      <c r="B83" s="1" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>533</v>
+      </c>
+      <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
-        <v>532</v>
-      </c>
-      <c r="B84" s="1" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>534</v>
+      </c>
+      <c r="B86" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
-        <v>533</v>
-      </c>
-      <c r="B85" s="1" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>535</v>
+      </c>
+      <c r="B87" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>534</v>
-      </c>
-      <c r="B86" s="1" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>601</v>
+      </c>
+      <c r="B88" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>535</v>
-      </c>
-      <c r="B87" s="1" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>602</v>
+      </c>
+      <c r="B89" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
-        <v>601</v>
-      </c>
-      <c r="B88" s="4" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>603</v>
+      </c>
+      <c r="B90" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
-        <v>602</v>
-      </c>
-      <c r="B89" s="4" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>604</v>
+      </c>
+      <c r="B91" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
-        <v>603</v>
-      </c>
-      <c r="B90" s="4" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>605</v>
+      </c>
+      <c r="B92" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="6">
-        <v>604</v>
-      </c>
-      <c r="B91" s="4" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>606</v>
+      </c>
+      <c r="B93" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="6">
-        <v>605</v>
-      </c>
-      <c r="B92" s="4" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>607</v>
+      </c>
+      <c r="B94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="6">
-        <v>606</v>
-      </c>
-      <c r="B93" s="4" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>608</v>
+      </c>
+      <c r="B95" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
-        <v>607</v>
-      </c>
-      <c r="B94" s="4" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>609</v>
+      </c>
+      <c r="B96" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
-        <v>608</v>
-      </c>
-      <c r="B95" s="4" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>610</v>
+      </c>
+      <c r="B97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="6">
-        <v>609</v>
-      </c>
-      <c r="B96" s="4" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>611</v>
+      </c>
+      <c r="B98" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
-        <v>610</v>
-      </c>
-      <c r="B97" s="4" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>612</v>
+      </c>
+      <c r="B99" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
-        <v>611</v>
-      </c>
-      <c r="B98" s="4" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>613</v>
+      </c>
+      <c r="B100" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
-        <v>612</v>
-      </c>
-      <c r="B99" s="4" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>614</v>
+      </c>
+      <c r="B101" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
-        <v>613</v>
-      </c>
-      <c r="B100" s="4" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>615</v>
+      </c>
+      <c r="B102" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
-        <v>614</v>
-      </c>
-      <c r="B101" s="4" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>616</v>
+      </c>
+      <c r="B103" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
-        <v>615</v>
-      </c>
-      <c r="B102" s="4" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>617</v>
+      </c>
+      <c r="B104" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
-        <v>616</v>
-      </c>
-      <c r="B103" s="4" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>618</v>
+      </c>
+      <c r="B105" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
-        <v>617</v>
-      </c>
-      <c r="B104" s="4" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>619</v>
+      </c>
+      <c r="B106" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
-        <v>618</v>
-      </c>
-      <c r="B105" s="4" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>620</v>
+      </c>
+      <c r="B107" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
-        <v>619</v>
-      </c>
-      <c r="B106" s="4" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>621</v>
+      </c>
+      <c r="B108" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>620</v>
-      </c>
-      <c r="B107" s="4" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>622</v>
+      </c>
+      <c r="B109" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>621</v>
-      </c>
-      <c r="B108" s="4" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>623</v>
+      </c>
+      <c r="B110" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>622</v>
-      </c>
-      <c r="B109" s="4" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>624</v>
+      </c>
+      <c r="B111" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>623</v>
-      </c>
-      <c r="B110" s="4" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>625</v>
+      </c>
+      <c r="B112" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>624</v>
-      </c>
-      <c r="B111" s="4" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>626</v>
+      </c>
+      <c r="B113" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>625</v>
-      </c>
-      <c r="B112" s="4" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>627</v>
+      </c>
+      <c r="B114" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>628</v>
+      </c>
+      <c r="B115" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>626</v>
-      </c>
-      <c r="B113" s="4" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>629</v>
+      </c>
+      <c r="B116" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>627</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>628</v>
-      </c>
-      <c r="B115" s="4" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>630</v>
+      </c>
+      <c r="B117" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>629</v>
-      </c>
-      <c r="B116" s="4" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>631</v>
+      </c>
+      <c r="B118" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>632</v>
+      </c>
+      <c r="B119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>633</v>
+      </c>
+      <c r="B120" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>634</v>
+      </c>
+      <c r="B121" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>635</v>
+      </c>
+      <c r="B122" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>636</v>
+      </c>
+      <c r="B123" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>701</v>
+      </c>
+      <c r="B124" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>702</v>
+      </c>
+      <c r="B125" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>630</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>631</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>632</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>633</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>634</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>635</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>636</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>701</v>
-      </c>
-      <c r="B124" s="4" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>703</v>
+      </c>
+      <c r="B126" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>702</v>
-      </c>
-      <c r="B125" s="4" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>704</v>
+      </c>
+      <c r="B127" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>703</v>
-      </c>
-      <c r="B126" s="4" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>705</v>
+      </c>
+      <c r="B128" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>704</v>
-      </c>
-      <c r="B127" s="1" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>706</v>
+      </c>
+      <c r="B129" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>705</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>706</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="B4:B129">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/budgets/data/supplies/ConstructionMaterials/data/ConstructionMaterials.xlsx
+++ b/budgets/data/supplies/ConstructionMaterials/data/ConstructionMaterials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\njava\simasoft\budgets\data\supplies\ConstructionMaterials\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -424,6 +424,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -901,8 +904,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1237,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,6 +1287,9 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1291,6 +1298,9 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1299,6 +1309,9 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1307,6 +1320,9 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1315,6 +1331,9 @@
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1323,6 +1342,9 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1331,6 +1353,9 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1339,6 +1364,9 @@
       <c r="B11" t="s">
         <v>14</v>
       </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1347,6 +1375,9 @@
       <c r="B12" t="s">
         <v>15</v>
       </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1355,6 +1386,9 @@
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1363,6 +1397,9 @@
       <c r="B14" t="s">
         <v>17</v>
       </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1371,6 +1408,9 @@
       <c r="B15" t="s">
         <v>131</v>
       </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1379,909 +1419,1251 @@
       <c r="B16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>309</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>310</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>311</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>312</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>313</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>319</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>322</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>323</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>324</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>325</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>326</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>327</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>328</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>329</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>330</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>332</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>333</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>334</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>335</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>402</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>403</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>404</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>405</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>406</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>407</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>408</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>409</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>410</v>
       </c>
       <c r="B44" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>413</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>414</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>415</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>419</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>420</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>421</v>
       </c>
       <c r="B50" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>422</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>423</v>
       </c>
       <c r="B52" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>501</v>
       </c>
       <c r="B53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>502</v>
       </c>
       <c r="B54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>503</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>504</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>505</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>506</v>
       </c>
       <c r="B58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>507</v>
       </c>
       <c r="B59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>508</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>509</v>
       </c>
       <c r="B61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>510</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>511</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>512</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>513</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>514</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>515</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>516</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>517</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>518</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>519</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>520</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>521</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>522</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>523</v>
       </c>
       <c r="B75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>524</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>525</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>526</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>527</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>528</v>
       </c>
       <c r="B80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>529</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>530</v>
       </c>
       <c r="B82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>531</v>
       </c>
       <c r="B83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>532</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>533</v>
       </c>
       <c r="B85" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>534</v>
       </c>
       <c r="B86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>535</v>
       </c>
       <c r="B87" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>601</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>602</v>
       </c>
       <c r="B89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>603</v>
       </c>
       <c r="B90" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>604</v>
       </c>
       <c r="B91" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>605</v>
       </c>
       <c r="B92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>606</v>
       </c>
       <c r="B93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>607</v>
       </c>
       <c r="B94" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>608</v>
       </c>
       <c r="B95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>609</v>
       </c>
       <c r="B96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>610</v>
       </c>
       <c r="B97" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>611</v>
       </c>
       <c r="B98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>612</v>
       </c>
       <c r="B99" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>613</v>
       </c>
       <c r="B100" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>614</v>
       </c>
       <c r="B101" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>615</v>
       </c>
       <c r="B102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>616</v>
       </c>
       <c r="B103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>617</v>
       </c>
       <c r="B104" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>618</v>
       </c>
       <c r="B105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>619</v>
       </c>
       <c r="B106" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>620</v>
       </c>
       <c r="B107" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>621</v>
       </c>
       <c r="B108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>622</v>
       </c>
       <c r="B109" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>623</v>
       </c>
       <c r="B110" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>624</v>
       </c>
       <c r="B111" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>625</v>
       </c>
       <c r="B112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>626</v>
       </c>
       <c r="B113" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>627</v>
       </c>
       <c r="B114" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>628</v>
       </c>
       <c r="B115" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>629</v>
       </c>
       <c r="B116" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>630</v>
       </c>
       <c r="B117" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>631</v>
       </c>
       <c r="B118" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>632</v>
       </c>
       <c r="B119" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>633</v>
       </c>
       <c r="B120" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>634</v>
       </c>
       <c r="B121" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>635</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>636</v>
       </c>
       <c r="B123" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>701</v>
       </c>
       <c r="B124" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>702</v>
       </c>
       <c r="B125" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>703</v>
       </c>
       <c r="B126" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>704</v>
       </c>
       <c r="B127" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>705</v>
       </c>
       <c r="B128" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>706</v>
       </c>
       <c r="B129" t="s">
         <v>127</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2289,5 +2671,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>